--- a/advt.CMS/Attachment/temp/Template/Importpractice.xlsx
+++ b/advt.CMS/Attachment/temp/Template/Importpractice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,6 +401,12 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
